--- a/results/I2_N10_T100_C300_0_res_fix.xlsx
+++ b/results/I2_N10_T100_C300_0_res_fix.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02099990844726562</v>
+        <v>0.01999998092651367</v>
       </c>
     </row>
     <row r="5">
